--- a/biology/Médecine/Diploë/Diploë.xlsx
+++ b/biology/Médecine/Diploë/Diploë.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diplo%C3%AB</t>
+          <t>Diploë</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diploë est la couche osseuse de la voûte crânienne comprise entre les lames interne et externe de la calvaria.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diplo%C3%AB</t>
+          <t>Diploë</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diploë est formé d'os spongieux dont les travées sont occupées par de la moelle osseuse rouge.
 Il est drainé par les veines diploétiques autour de lesquelles se forment les canaux du diploë.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diplo%C3%AB</t>
+          <t>Diploë</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec ancien διπλόη ( diplóē, « littéralement, un pli ») féminin de διπλόος ( diplóos, « double »)
 </t>
